--- a/hellman_metadata.xlsx
+++ b/hellman_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbhas\Documents\Code\sra_submission_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26C7B1B-8A0E-4786-98C8-6D912BF844B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279C9A9A-B1BD-44AC-A308-4E9F9E23D775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="23420" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
